--- a/construct_ECM/samples_5D.xlsx
+++ b/construct_ECM/samples_5D.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfc94933abe91371/RESEARCH/LOF/code/construct_ECM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{1C81F26F-89B9-496F-AAD0-95581A4F80AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{504CD3C5-0523-4ECC-BF20-0B840FB810CF}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{1C81F26F-89B9-496F-AAD0-95581A4F80AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C37DB6B0-B183-4F0C-BAD5-F846214F217B}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="18240" xr2:uid="{53661E64-1DFA-46DC-8407-01859E38FB50}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1">
-        <v>4.835</v>
+        <v>4.7350000000000003</v>
       </c>
       <c r="B1" s="1">
         <v>3.2389999999999999</v>
